--- a/data/W01_2027.xlsx
+++ b/data/W01_2027.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220CEA6F-61D3-4937-928B-5C0D3C63ECAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1399B3-676C-4D0E-87EF-FA054768554D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,9 +150,6 @@
     <t>due 28 Oct</t>
   </si>
   <si>
-    <t>Last updated 1 Nov, 15:00</t>
-  </si>
-  <si>
     <t>Extreme</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve"> | 4-11 Nov 2026</t>
+  </si>
+  <si>
+    <t>Last updated 1 Dec, 15:00</t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -623,16 +623,16 @@
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" ht="52.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -669,7 +669,7 @@
     <row r="8" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="10" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="11" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="12" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
